--- a/report/figures/budget.xlsx
+++ b/report/figures/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\Documents\GitHub\1st-semester-project\report\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2697897-B152-4D08-A543-C505ECEC90A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3A4E83-A7DE-48A9-83C2-98C6DE63C638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{576C5329-039E-45A2-9B75-1A0C4BC34B7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>PIR sensor</t>
   </si>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +119,39 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,15 +159,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957D708E-0677-4530-B727-58E0DF6FF318}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,10 +543,12 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
@@ -505,8 +563,14 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -523,8 +587,14 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -541,8 +611,14 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -559,8 +635,14 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -577,8 +659,14 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -595,8 +683,14 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -613,15 +707,21 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>6.64</v>
       </c>
       <c r="D8">
@@ -631,8 +731,14 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -641,7 +747,7 @@
         <v>763.89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
